--- a/binance_ETHUSDT_MACD.xlsx
+++ b/binance_ETHUSDT_MACD.xlsx
@@ -472,17 +472,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>136.25000000</t>
+          <t>134.41000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>136.42000000</t>
+          <t>137.54000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40862.50242000</t>
+          <t>82844.02124000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -490,20 +490,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5721842.07121670</t>
+          <t>11463838.27860240</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>11313</v>
+        <v>22364</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18580.61358000</t>
+          <t>39241.33434000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2604670.37233260</t>
+          <t>5432951.71095180</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-17.7649346494116</v>
+        <v>-17.67558992006687</v>
       </c>
       <c r="Q2" t="n">
-        <v>-11.9389179756324</v>
+        <v>-11.92104902976346</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.826016673779197</v>
+        <v>-5.754540890303412</v>
       </c>
     </row>
     <row r="3">

--- a/binance_ETHUSDT_MACD.xlsx
+++ b/binance_ETHUSDT_MACD.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>137.54000000</t>
+          <t>137.98000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>82844.02124000</t>
+          <t>96385.88140000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -490,20 +490,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11463838.27860240</t>
+          <t>13336145.19832800</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>22364</v>
+        <v>25315</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>39241.33434000</t>
+          <t>45707.11452000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5432951.71095180</t>
+          <t>6326736.86322590</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-17.67558992006687</v>
+        <v>-17.64049020496714</v>
       </c>
       <c r="Q2" t="n">
-        <v>-11.92104902976346</v>
+        <v>-11.91402908674351</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.754540890303412</v>
+        <v>-5.726461118223625</v>
       </c>
     </row>
     <row r="3">

--- a/binance_ETHUSDT_MACD.xlsx
+++ b/binance_ETHUSDT_MACD.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>128.37000000</t>
+          <t>128.07000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>66561.32814000</t>
+          <t>67045.91422000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -490,20 +490,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8535223.67336100</t>
+          <t>8597333.58815610</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>21954</v>
+        <v>22096</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>36402.15296000</t>
+          <t>36605.40666000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4669194.34316190</t>
+          <t>4695240.08143210</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-17.78538721480078</v>
+        <v>-17.80931883873239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-19.49220761873732</v>
+        <v>-19.49699394352364</v>
       </c>
       <c r="R2" t="n">
-        <v>1.70682040393654</v>
+        <v>1.687675104791246</v>
       </c>
     </row>
     <row r="3">
